--- a/2_database/data_processing/feature_engineering.xlsx
+++ b/2_database/data_processing/feature_engineering.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Google Drive/Github-Lucas/master/2_database/ibge_censo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Google Drive/Github-Lucas/master/2_database/data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835CB76E-0A35-EF4C-94C8-DFD19EC1AFBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4521D3F4-A4FE-5E48-942A-890682AAA5C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{B0C0F7A5-BA41-7647-85FD-AE46798AED09}"/>
   </bookViews>
@@ -25,29 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t>2000_education_var_01_quantity</t>
   </si>
   <si>
-    <t>2000_family_var_02_qt</t>
-  </si>
-  <si>
-    <t>education_var_01_qt_pct</t>
-  </si>
-  <si>
-    <t>2000_family_var_01_adequada</t>
-  </si>
-  <si>
     <t>2000_family_var_01_total</t>
   </si>
   <si>
-    <t>2000_family_var_01_semi_adequada</t>
-  </si>
-  <si>
-    <t>2000_family_var_01_inadequada</t>
-  </si>
-  <si>
     <t>2000_fertility_var_01_has_children</t>
   </si>
   <si>
@@ -105,21 +90,9 @@
     <t>2010_education_var_01_quantity</t>
   </si>
   <si>
-    <t>2010_family_var_02_qt</t>
-  </si>
-  <si>
-    <t>2010_family_var_01_adequada</t>
-  </si>
-  <si>
     <t>2010_family_var_01_total</t>
   </si>
   <si>
-    <t>2010_family_var_01_semi_adequada</t>
-  </si>
-  <si>
-    <t>2010_family_var_01_inadequada</t>
-  </si>
-  <si>
     <t>2010_fertility_var_01_has_children</t>
   </si>
   <si>
@@ -286,15 +259,6 @@
   </si>
   <si>
     <t>query</t>
-  </si>
-  <si>
-    <t>family_var_01_adequada_pct</t>
-  </si>
-  <si>
-    <t>family_var_01_semi_adequada_pct</t>
-  </si>
-  <si>
-    <t>family_var_01_inadequada_pct</t>
   </si>
   <si>
     <t>work_var_01_regular_pct
@@ -303,6 +267,69 @@
   <si>
     <t>full_dataset['work_var_01_regular_pct'] = ((full_dataset['2000_work_var_01_domestic_regular'] + full_dataset['2000_work_var_01_other_regular'] + full_dataset['2000_work_var_01_military_and_gov']) / full_dataset['2000_work_var_01_total']) / ((full_dataset['2010_work_var_01_main_regular'] + full_dataset['2010_work_var_01_other_regular']) / full_dataset['2010_work_var_01_total'])
 full_dataset['work_var_01_irregular_pct'] = ((full_dataset['2000_work_var_01_domestic_irregular'] + full_dataset['2000_work_var_01_other_irregular']) / full_dataset['2000_work_var_01_total']) / ((full_dataset['2010_work_var_01_main_irregular'] + full_dataset['2010_work_var_01_other_irregular']) / full_dataset['2010_work_var_01_total'])</t>
+  </si>
+  <si>
+    <t>2000_family_var_02_quantity</t>
+  </si>
+  <si>
+    <t>family_var_01_suitable_pct</t>
+  </si>
+  <si>
+    <t>2000_family_var_01_suitable</t>
+  </si>
+  <si>
+    <t>2010_family_var_01_suitable</t>
+  </si>
+  <si>
+    <t>family_var_01_semi_suitable_pct</t>
+  </si>
+  <si>
+    <t>2000_family_var_01_semi_suitable</t>
+  </si>
+  <si>
+    <t>2010_family_var_01_semi_suitable</t>
+  </si>
+  <si>
+    <t>family_var_01_inappropriate_pct</t>
+  </si>
+  <si>
+    <t>2000_family_var_01_inappropriate</t>
+  </si>
+  <si>
+    <t>2010_family_var_01_inappropriate</t>
+  </si>
+  <si>
+    <t>enem_var_01_enem_score_mean_pct</t>
+  </si>
+  <si>
+    <t>enem_var_01_enem_score_std_pct</t>
+  </si>
+  <si>
+    <t>enem_var_01_enem_score_median_pct</t>
+  </si>
+  <si>
+    <t>2000_enem_var_01_enem_score_mean</t>
+  </si>
+  <si>
+    <t>2010_enem_var_01_enem_score_mean</t>
+  </si>
+  <si>
+    <t>2000_enem_var_01_enem_score_std</t>
+  </si>
+  <si>
+    <t>2010_enem_var_01_enem_score_std</t>
+  </si>
+  <si>
+    <t>2000_enem_var_01_enem_score_median</t>
+  </si>
+  <si>
+    <t>2010_enem_var_01_enem_score_median</t>
+  </si>
+  <si>
+    <t>2010_family_var_02_quantity</t>
+  </si>
+  <si>
+    <t>education_var_01_quantity_pct</t>
   </si>
 </sst>
 </file>
@@ -349,6 +376,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -360,13 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9283D-D8DF-2E4A-A0AB-7627EF8E25F5}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,121 +727,121 @@
     <col min="8" max="8" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="7">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4">
         <v>2000</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7">
+      <c r="D1" s="4"/>
+      <c r="F1" s="4">
         <v>2010</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
-        <v>86</v>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE("full_dataset['", A2,"'] = (full_dataset['", C2,"'] / full_dataset['",D2,"'])"," / (full_dataset['", F2,"'] / full_dataset['",G2,"'])")</f>
-        <v>full_dataset['education_var_01_qt_pct'] = (full_dataset['2000_education_var_01_quantity'] / full_dataset['2000_family_var_02_qt']) / (full_dataset['2010_education_var_01_quantity'] / full_dataset['2010_family_var_02_qt'])</v>
+        <v>full_dataset['education_var_01_quantity_pct'] = (full_dataset['2000_education_var_01_quantity'] / full_dataset['2000_family_var_02_quantity']) / (full_dataset['2010_education_var_01_quantity'] / full_dataset['2010_family_var_02_quantity'])</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H19" si="0">CONCATENATE("full_dataset['", A4,"'] = (full_dataset['", C4,"'] / full_dataset['",D4,"'])"," / (full_dataset['", F4,"'] / full_dataset['",G4,"'])")</f>
-        <v>full_dataset['family_var_01_adequada_pct'] = (full_dataset['2000_family_var_01_adequada'] / full_dataset['2000_family_var_01_total']) / (full_dataset['2010_family_var_01_adequada'] / full_dataset['2010_family_var_01_total'])</v>
+        <v>full_dataset['family_var_01_suitable_pct'] = (full_dataset['2000_family_var_01_suitable'] / full_dataset['2000_family_var_01_total']) / (full_dataset['2010_family_var_01_suitable'] / full_dataset['2010_family_var_01_total'])</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>full_dataset['family_var_01_semi_adequada_pct'] = (full_dataset['2000_family_var_01_semi_adequada'] / full_dataset['2000_family_var_01_total']) / (full_dataset['2010_family_var_01_semi_adequada'] / full_dataset['2010_family_var_01_total'])</v>
+        <v>full_dataset['family_var_01_semi_suitable_pct'] = (full_dataset['2000_family_var_01_semi_suitable'] / full_dataset['2000_family_var_01_total']) / (full_dataset['2010_family_var_01_semi_suitable'] / full_dataset['2010_family_var_01_total'])</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>full_dataset['family_var_01_inadequada_pct'] = (full_dataset['2000_family_var_01_inadequada'] / full_dataset['2000_family_var_01_total']) / (full_dataset['2010_family_var_01_inadequada'] / full_dataset['2010_family_var_01_total'])</v>
+        <v>full_dataset['family_var_01_inappropriate_pct'] = (full_dataset['2000_family_var_01_inappropriate'] / full_dataset['2000_family_var_01_total']) / (full_dataset['2010_family_var_01_inappropriate'] / full_dataset['2010_family_var_01_total'])</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -823,19 +850,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -844,19 +871,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -865,19 +892,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -886,19 +913,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -907,19 +934,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -928,19 +955,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -949,19 +976,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -970,19 +997,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -991,112 +1018,112 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>full_dataset['fertility_var_03_total_pct'] = (full_dataset['2000_fertility_var_03_total'] / full_dataset['2000_family_var_02_qt']) / (full_dataset['2010_fertility_var_03_total'] / full_dataset['2010_family_var_02_qt'])</v>
+        <v>full_dataset['fertility_var_03_total_pct'] = (full_dataset['2000_fertility_var_03_total'] / full_dataset['2000_family_var_02_quantity']) / (full_dataset['2010_fertility_var_03_total'] / full_dataset['2010_family_var_02_quantity'])</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>90</v>
+      <c r="A21" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="H25" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
         <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
       </c>
       <c r="H27" t="str">
         <f>CONCATENATE("full_dataset['", A27,"'] = (full_dataset['", C27,"'] / full_dataset['", F27,"'])")</f>
@@ -1105,13 +1132,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
       </c>
       <c r="H28" t="str">
         <f>CONCATENATE("full_dataset['", A28,"'] = (full_dataset['", C28,"'] / full_dataset['", F28,"'])")</f>
@@ -1120,13 +1147,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
         <v>50</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
       </c>
       <c r="H29" t="str">
         <f>CONCATENATE("full_dataset['", A29,"'] = (full_dataset['", C29,"'] / full_dataset['", F29,"'])")</f>
@@ -1135,13 +1162,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
         <v>51</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="H31" t="str">
         <f>CONCATENATE("full_dataset['", A31,"'] = full_dataset['", C31,"'] / full_dataset['", F31,"']")</f>
@@ -1150,13 +1177,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
         <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>61</v>
       </c>
       <c r="H32" t="str">
         <f>CONCATENATE("full_dataset['", A32,"'] = full_dataset['", C32,"'] / full_dataset['", F32,"']")</f>
@@ -1165,13 +1192,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
         <v>53</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="H33" t="str">
         <f>CONCATENATE("full_dataset['", A33,"'] = full_dataset['", C33,"'] / full_dataset['", F33,"']")</f>
@@ -1180,13 +1207,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
         <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>63</v>
       </c>
       <c r="H35" t="str">
         <f>CONCATENATE("full_dataset['", A35,"'] = full_dataset['", C35,"'] / full_dataset['", F35,"']")</f>
@@ -1195,13 +1222,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
         <v>55</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
       </c>
       <c r="H36" t="str">
         <f>CONCATENATE("full_dataset['", A36,"'] = full_dataset['", C36,"'] / full_dataset['", F36,"']")</f>
@@ -1210,17 +1237,62 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
         <v>56</v>
-      </c>
-      <c r="F37" t="s">
-        <v>65</v>
       </c>
       <c r="H37" t="str">
         <f>CONCATENATE("full_dataset['", A37,"'] = full_dataset['", C37,"'] / full_dataset['", F37,"']")</f>
         <v>full_dataset['social_indicator_var_03_responsable_illiterate_and_inappropriate_residence_pct'] = full_dataset['social_indicator_var_03_2000_responsable_illiterate_and_inappropriate_residence'] / full_dataset['social_indicator_var_03_2010_responsable_illiterate_and_inappropriate_residence']</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" t="str">
+        <f>CONCATENATE("full_dataset['", A39,"'] = full_dataset['", C39,"'] / full_dataset['", F39,"']")</f>
+        <v>full_dataset['enem_var_01_enem_score_mean_pct'] = full_dataset['2000_enem_var_01_enem_score_mean'] / full_dataset['2010_enem_var_01_enem_score_mean']</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" t="str">
+        <f>CONCATENATE("full_dataset['", A40,"'] = full_dataset['", C40,"'] / full_dataset['", F40,"']")</f>
+        <v>full_dataset['enem_var_01_enem_score_std_pct'] = full_dataset['2000_enem_var_01_enem_score_std'] / full_dataset['2010_enem_var_01_enem_score_std']</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="str">
+        <f>CONCATENATE("full_dataset['", A41,"'] = full_dataset['", C41,"'] / full_dataset['", F41,"']")</f>
+        <v>full_dataset['enem_var_01_enem_score_median_pct'] = full_dataset['2000_enem_var_01_enem_score_median'] / full_dataset['2010_enem_var_01_enem_score_median']</v>
       </c>
     </row>
   </sheetData>
